--- a/Risk Monitor/Risk.xlsx
+++ b/Risk Monitor/Risk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_space\software_projects\Python\Risk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_space\software_projects\Python\Risk\Risk Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>Account Info</t>
   </si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>Profitable</t>
-  </si>
-  <si>
-    <t>Net long</t>
   </si>
   <si>
     <t>VIX_J1</t>
@@ -1245,6 +1242,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,9 +1299,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
@@ -1410,6 +1407,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1522,10 +1520,10 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>948.81</c:v>
+                  <c:v>1000.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15406.321625096221</c:v>
+                  <c:v>15405.496072969008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,6 +1556,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1664,6 +1663,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1808,7 +1808,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1832,7 +1834,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>948.81</c:v>
+                  <c:v>1000.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1000</c:v>
@@ -1995,6 +1997,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2139,7 +2142,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2163,7 +2168,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>948.81</c:v>
+                  <c:v>1000.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>498.53999999999996</c:v>
@@ -2494,10 +2499,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>948.81</c:v>
+                  <c:v>1000.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5948.4368445295759</c:v>
+                  <c:v>5948.0791389073802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2652,6 +2657,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2796,7 +2802,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2820,10 +2828,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>948.81</c:v>
+                  <c:v>1000.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4626.8</c:v>
+                  <c:v>4626.8000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2856,6 +2864,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2973,6 +2982,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3117,7 +3127,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3141,7 +3153,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>948.81</c:v>
+                  <c:v>1000.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1377.7</c:v>
@@ -3177,6 +3189,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3462,10 +3475,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>948.81</c:v>
+                  <c:v>1000.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1932.430337027409</c:v>
+                  <c:v>1931.9369340616252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8047,10 +8060,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8081,7 +8094,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="51">
-        <v>948.81</v>
+        <v>1000.77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8089,7 +8102,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="51">
-        <v>106.62</v>
+        <v>158.58000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -8105,7 +8118,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="49">
-        <v>1.1266</v>
+        <v>1.1882999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -8121,7 +8134,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="51">
-        <v>-57.69</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8130,7 +8143,7 @@
       </c>
       <c r="B11" s="50">
         <f>B10/B9</f>
-        <v>-5.7317436661698952E-2</v>
+        <v>-5.6929955290611033E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8139,7 +8152,7 @@
       </c>
       <c r="B12" s="51">
         <f>SUM(Positions!H11:H30)</f>
-        <v>15406.321625096221</v>
+        <v>15405.496072969008</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8148,7 +8161,7 @@
       </c>
       <c r="B13" s="4">
         <f>SUM(Positions!I11:I30)</f>
-        <v>16.237520288673409</v>
+        <v>15.393642967883736</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8171,7 +8184,7 @@
       </c>
       <c r="C16" s="4">
         <f>B16/$B$5</f>
-        <v>1.0539517922450228</v>
+        <v>0.99923059244381829</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8183,7 +8196,7 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ref="C17:C21" si="0">B17/$B$5</f>
-        <v>0.52543712650583363</v>
+        <v>0.49815641955694112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8191,11 +8204,11 @@
         <v>37</v>
       </c>
       <c r="B18" s="1">
-        <v>5948.4368445295759</v>
+        <v>5948.0791389073802</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>6.2693656733482745</v>
+        <v>5.9435026418731383</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8203,11 +8216,11 @@
         <v>38</v>
       </c>
       <c r="B19" s="1">
-        <v>4626.8</v>
+        <v>4626.8000000000011</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>4.876424152359272</v>
+        <v>4.6232401051190593</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8219,7 +8232,7 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>1.4520293841759679</v>
+        <v>1.3766399872098485</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8227,11 +8240,11 @@
         <v>40</v>
       </c>
       <c r="B21" s="1">
-        <v>1932.430337027409</v>
+        <v>1931.9369340616252</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
-        <v>2.036688417098691</v>
+        <v>1.9304504871864916</v>
       </c>
     </row>
   </sheetData>
@@ -8262,7 +8275,7 @@
   <dimension ref="D8:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="C14" sqref="A14:XFD14"/>
+      <selection activeCell="C13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8278,7 +8291,7 @@
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
@@ -8290,22 +8303,22 @@
   <sheetData>
     <row r="8" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="88" t="s">
+      <c r="K9" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90" t="s">
+      <c r="L9" s="92"/>
+      <c r="M9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="91"/>
-      <c r="Q9" s="92" t="s">
+      <c r="N9" s="94"/>
+      <c r="Q9" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="93"/>
-      <c r="S9" s="94" t="s">
+      <c r="R9" s="96"/>
+      <c r="S9" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="95"/>
+      <c r="T9" s="98"/>
     </row>
     <row r="10" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="10" t="s">
@@ -8371,161 +8384,161 @@
         <v>61</v>
       </c>
       <c r="F11" s="26">
-        <v>13.004</v>
+        <v>30719</v>
       </c>
       <c r="G11" s="27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H11" s="75">
-        <v>130.04</v>
+        <v>1400.6091389073799</v>
       </c>
       <c r="I11" s="28">
-        <v>0.13705589106354274</v>
+        <v>1.3995314996526473</v>
       </c>
       <c r="J11" s="29">
-        <v>12.393000000000001</v>
+        <v>29907</v>
       </c>
       <c r="K11" s="42">
-        <v>-52</v>
+        <v>-1000.77</v>
       </c>
       <c r="L11" s="30">
-        <v>5.4805493196741183E-2</v>
-      </c>
-      <c r="M11" s="104">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="M11" s="86">
+        <v>1000.77</v>
       </c>
       <c r="N11" s="31">
-        <v>5.4805493196741183E-2</v>
+        <v>1</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>45</v>
       </c>
       <c r="P11" s="45">
-        <v>-4.6985542909873799E-2</v>
+        <v>-2.6433152120837265E-2</v>
       </c>
       <c r="Q11" s="42">
-        <v>-0.03</v>
+        <v>-1.6800000000000002</v>
       </c>
       <c r="R11" s="31">
-        <v>-5.7692307692307687E-4</v>
+        <v>-1.6787073953056148E-3</v>
       </c>
       <c r="S11" s="33">
-        <v>-6.11</v>
+        <v>-37.44</v>
       </c>
       <c r="T11" s="31">
-        <v>-6.0705414803775464E-3</v>
+        <v>-3.7198211624441133E-2</v>
       </c>
       <c r="U11" s="80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" s="34" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3">
-        <v>66.540000000000006</v>
+        <v>4015.3</v>
       </c>
       <c r="G12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12" s="76">
-        <v>665.40000000000009</v>
+        <v>11.220000000000027</v>
       </c>
       <c r="I12" s="4">
-        <v>0.7012995225598383</v>
+        <v>1.1211367247219668E-2</v>
       </c>
       <c r="J12" s="23">
-        <v>64.73</v>
+        <v>4122.1000000000004</v>
       </c>
       <c r="K12" s="43">
-        <v>-520</v>
+        <v>-1000.77</v>
       </c>
       <c r="L12" s="21">
-        <v>0.54805493196741184</v>
-      </c>
-      <c r="M12" s="105">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="M12" s="87">
+        <v>1000.77</v>
       </c>
       <c r="N12" s="8">
-        <v>0.54805493196741184</v>
+        <v>1</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P12" s="46">
-        <v>-2.7201683198076376E-2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="43">
-        <v>-0.39</v>
+        <v>-0.67</v>
       </c>
       <c r="R12" s="8">
-        <v>-7.5000000000000002E-4</v>
+        <v>-6.6948449693735826E-4</v>
       </c>
       <c r="S12" s="16">
-        <v>-18.100000000000001</v>
+        <v>11.169999999999998</v>
       </c>
       <c r="T12" s="8">
-        <v>-1.7983109786388476E-2</v>
+        <v>1.1097863884749129E-2</v>
       </c>
       <c r="U12" s="81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F13" s="3">
-        <v>30719</v>
+        <v>152.91500000000002</v>
       </c>
       <c r="G13" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H13" s="76">
-        <v>1400.9412880688089</v>
+        <v>3058.3</v>
       </c>
       <c r="I13" s="4">
-        <v>1.476524581390172</v>
+        <v>3.0559469208709298</v>
       </c>
       <c r="J13" s="20">
-        <v>29829</v>
+        <v>156.33000000000001</v>
       </c>
       <c r="K13" s="43">
-        <v>-948.81</v>
+        <v>-78</v>
       </c>
       <c r="L13" s="21">
-        <v>1</v>
-      </c>
-      <c r="M13" s="105">
-        <v>948.81</v>
+        <v>7.7939986210617831E-2</v>
+      </c>
+      <c r="M13" s="87">
+        <v>78</v>
       </c>
       <c r="N13" s="8">
-        <v>1</v>
+        <v>7.7939986210617831E-2</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P13" s="46">
-        <v>0</v>
+        <v>2.2332668475950637E-2</v>
       </c>
       <c r="Q13" s="43">
-        <v>-0.84000000000000008</v>
+        <v>-2</v>
       </c>
       <c r="R13" s="8">
-        <v>-8.8531950548581919E-4</v>
+        <v>-2.564102564102564E-2</v>
       </c>
       <c r="S13" s="16">
-        <v>-40.96</v>
+        <v>68.3</v>
       </c>
       <c r="T13" s="8">
-        <v>-4.0695479384003974E-2</v>
+        <v>6.7858917039244904E-2</v>
       </c>
       <c r="U13" s="81">
         <v>2</v>
@@ -8533,58 +8546,58 @@
     </row>
     <row r="14" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D14" s="34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3">
-        <v>152.91500000000002</v>
+        <v>66.540000000000006</v>
       </c>
       <c r="G14" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H14" s="76">
-        <v>3058.3</v>
+        <v>665.40000000000009</v>
       </c>
       <c r="I14" s="4">
-        <v>3.2233007662229531</v>
+        <v>0.66488803621211678</v>
       </c>
       <c r="J14" s="20">
-        <v>155.29</v>
+        <v>65.19</v>
       </c>
       <c r="K14" s="43">
-        <v>-78</v>
+        <v>-520</v>
       </c>
       <c r="L14" s="21">
-        <v>8.220823979511177E-2</v>
-      </c>
-      <c r="M14" s="105">
-        <v>78</v>
+        <v>0.51959990807078549</v>
+      </c>
+      <c r="M14" s="87">
+        <v>520</v>
       </c>
       <c r="N14" s="8">
-        <v>8.220823979511177E-2</v>
+        <v>0.51959990807078549</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P14" s="46">
-        <v>0</v>
+        <v>-2.0288548241659279E-2</v>
       </c>
       <c r="Q14" s="43">
-        <v>-1.32</v>
+        <v>-0.53</v>
       </c>
       <c r="R14" s="8">
-        <v>-1.6923076923076923E-2</v>
+        <v>-1.0192307692307692E-3</v>
       </c>
       <c r="S14" s="16">
-        <v>47.5</v>
+        <v>-13.5</v>
       </c>
       <c r="T14" s="8">
-        <v>4.7193243914555393E-2</v>
+        <v>-1.3412816691505217E-2</v>
       </c>
       <c r="U14" s="81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.25">
@@ -8592,52 +8605,52 @@
         <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3">
-        <v>137.77000000000001</v>
+        <v>26.254000000000001</v>
       </c>
       <c r="G15" s="1">
         <v>10</v>
       </c>
       <c r="H15" s="76">
-        <v>1377.7</v>
+        <v>262.54000000000002</v>
       </c>
       <c r="I15" s="4">
-        <v>1.4520293841759679</v>
+        <v>0.26233799974020006</v>
       </c>
       <c r="J15" s="20">
-        <v>137.47</v>
+        <v>26.341999999999999</v>
       </c>
       <c r="K15" s="43">
-        <v>-948.81</v>
+        <v>-52</v>
       </c>
       <c r="L15" s="21">
-        <v>1</v>
-      </c>
-      <c r="M15" s="105">
-        <v>948.81</v>
+        <v>5.1959990807078547E-2</v>
+      </c>
+      <c r="M15" s="87">
+        <v>52</v>
       </c>
       <c r="N15" s="8">
-        <v>1</v>
+        <v>5.1959990807078547E-2</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P15" s="46">
-        <v>-2.1775422806126978E-3</v>
+        <v>3.3518701912088598E-3</v>
       </c>
       <c r="Q15" s="43">
-        <v>-0.2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="R15" s="8">
-        <v>-2.1079035844900456E-4</v>
+        <v>-2.6923076923076926E-3</v>
       </c>
       <c r="S15" s="16">
-        <v>-3</v>
+        <v>0.88</v>
       </c>
       <c r="T15" s="8">
-        <v>-2.9806259314456036E-3</v>
+        <v>8.7431693989071038E-4</v>
       </c>
       <c r="U15" s="81">
         <v>1</v>
@@ -8645,34 +8658,34 @@
     </row>
     <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D16" s="34" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3">
-        <v>4015.3</v>
+        <v>2219.92</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="76">
-        <v>11.220000000000027</v>
+        <v>4439.84</v>
       </c>
       <c r="I16" s="4">
-        <v>1.1825339108989185E-2</v>
+        <v>4.4364239535557619</v>
       </c>
       <c r="J16" s="20">
-        <v>4108.3999999999996</v>
+        <v>2242.31</v>
       </c>
       <c r="K16" s="43">
-        <v>-948.81</v>
+        <v>-1000.77</v>
       </c>
       <c r="L16" s="21">
         <v>1</v>
       </c>
-      <c r="M16" s="105">
-        <v>948.81</v>
+      <c r="M16" s="87">
+        <v>1000.77</v>
       </c>
       <c r="N16" s="8">
         <v>1</v>
@@ -8681,19 +8694,19 @@
         <v>50</v>
       </c>
       <c r="P16" s="46">
-        <v>0</v>
+        <v>1.0085949043208706E-2</v>
       </c>
       <c r="Q16" s="43">
-        <v>-0.46</v>
+        <v>-5.99</v>
       </c>
       <c r="R16" s="8">
-        <v>-4.8481782443271049E-4</v>
+        <v>-5.9853912487384713E-3</v>
       </c>
       <c r="S16" s="16">
-        <v>11.19</v>
+        <v>44.78</v>
       </c>
       <c r="T16" s="8">
-        <v>1.1117734724292101E-2</v>
+        <v>4.4490809736711379E-2</v>
       </c>
       <c r="U16" s="81">
         <v>2</v>
@@ -8701,34 +8714,34 @@
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3">
-        <v>23.77</v>
+        <v>137.77000000000001</v>
       </c>
       <c r="G17" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H17" s="76">
-        <v>118.85</v>
+        <v>1377.7</v>
       </c>
       <c r="I17" s="4">
-        <v>0.12526217050832095</v>
+        <v>1.3766399872098485</v>
       </c>
       <c r="J17" s="20">
-        <v>18.149999999999999</v>
+        <v>137.49</v>
       </c>
       <c r="K17" s="43">
-        <v>-948.81</v>
+        <v>-1000.77</v>
       </c>
       <c r="L17" s="21">
         <v>1</v>
       </c>
-      <c r="M17" s="105">
-        <v>948.81</v>
+      <c r="M17" s="87">
+        <v>1000.77</v>
       </c>
       <c r="N17" s="8">
         <v>1</v>
@@ -8737,131 +8750,131 @@
         <v>45</v>
       </c>
       <c r="P17" s="46">
-        <v>0</v>
+        <v>-2.032372795238449E-3</v>
       </c>
       <c r="Q17" s="43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R17" s="8">
-        <v>0</v>
+        <v>-4.9961529622190911E-4</v>
       </c>
       <c r="S17" s="16">
-        <v>-28.400000000000002</v>
+        <v>-2.8</v>
       </c>
       <c r="T17" s="8">
-        <v>-2.8216592151018384E-2</v>
+        <v>-2.7819175360158967E-3</v>
       </c>
       <c r="U17" s="81">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3">
-        <v>151.33000000000001</v>
+        <v>13.004</v>
       </c>
       <c r="G18" s="1">
-        <v>1400</v>
+        <v>10</v>
       </c>
       <c r="H18" s="76">
-        <v>1932.430337027409</v>
+        <v>130.04</v>
       </c>
       <c r="I18" s="4">
-        <v>2.036688417098691</v>
+        <v>0.12993994624139413</v>
       </c>
       <c r="J18" s="20">
-        <v>151.22999999999999</v>
+        <v>12.468999999999999</v>
       </c>
       <c r="K18" s="43">
-        <v>-948.81</v>
+        <v>-52</v>
       </c>
       <c r="L18" s="21">
-        <v>1</v>
-      </c>
-      <c r="M18" s="105">
-        <v>948.81</v>
+        <v>5.1959990807078547E-2</v>
+      </c>
+      <c r="M18" s="87">
+        <v>52</v>
       </c>
       <c r="N18" s="8">
-        <v>1</v>
+        <v>5.1959990807078547E-2</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P18" s="46">
-        <v>0</v>
+        <v>-4.1141187326976331E-2</v>
       </c>
       <c r="Q18" s="43">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="R18" s="8">
-        <v>0</v>
+        <v>-1.1538461538461537E-3</v>
       </c>
       <c r="S18" s="16">
-        <v>-1.2700000000000002</v>
+        <v>-5.35</v>
       </c>
       <c r="T18" s="8">
-        <v>-1.2617983109786391E-3</v>
+        <v>-5.3154495777446593E-3</v>
       </c>
       <c r="U18" s="81">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F19" s="3">
-        <v>2219.92</v>
+        <v>24.927</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H19" s="76">
-        <v>4439.84</v>
+        <v>498.53999999999996</v>
       </c>
       <c r="I19" s="4">
-        <v>4.6793773252811421</v>
+        <v>0.49815641955694112</v>
       </c>
       <c r="J19" s="20">
-        <v>2230.63</v>
+        <v>25.276</v>
       </c>
       <c r="K19" s="43">
-        <v>-948.81</v>
+        <v>-7.8</v>
       </c>
       <c r="L19" s="21">
-        <v>1</v>
-      </c>
-      <c r="M19" s="105">
-        <v>948.81</v>
+        <v>7.7939986210617826E-3</v>
+      </c>
+      <c r="M19" s="87">
+        <v>78</v>
       </c>
       <c r="N19" s="8">
-        <v>1</v>
+        <v>7.7939986210617831E-2</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P19" s="46">
+        <v>-1.4000882577125213E-2</v>
+      </c>
+      <c r="Q19" s="43">
         <v>0</v>
       </c>
-      <c r="Q19" s="43">
-        <v>-4.8499999999999996</v>
-      </c>
       <c r="R19" s="8">
-        <v>-5.1116661923883604E-3</v>
+        <v>0</v>
       </c>
       <c r="S19" s="16">
-        <v>21.42</v>
+        <v>-6.98</v>
       </c>
       <c r="T19" s="8">
-        <v>2.1281669150521612E-2</v>
+        <v>-6.934923000496771E-3</v>
       </c>
       <c r="U19" s="81">
         <v>2</v>
@@ -8869,58 +8882,58 @@
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="34" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3">
-        <v>24.927</v>
+        <v>51.052</v>
       </c>
       <c r="G20" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H20" s="76">
-        <v>498.53999999999996</v>
+        <v>510.52</v>
       </c>
       <c r="I20" s="4">
-        <v>0.52543712650583363</v>
+        <v>0.51012720205441808</v>
       </c>
       <c r="J20" s="20">
-        <v>25.234000000000002</v>
+        <v>49.298000000000002</v>
       </c>
       <c r="K20" s="43">
-        <v>-7.8</v>
+        <v>-52</v>
       </c>
       <c r="L20" s="21">
-        <v>8.2208239795111774E-3</v>
-      </c>
-      <c r="M20" s="105">
-        <v>78</v>
+        <v>5.1959990807078547E-2</v>
+      </c>
+      <c r="M20" s="87">
+        <v>52</v>
       </c>
       <c r="N20" s="8">
-        <v>8.220823979511177E-2</v>
+        <v>5.1959990807078547E-2</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P20" s="46">
-        <v>-1.2315962610823692E-2</v>
+        <v>-3.4357126067538934E-2</v>
       </c>
       <c r="Q20" s="43">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="R20" s="8">
-        <v>0</v>
+        <v>-4.4230769230769237E-3</v>
       </c>
       <c r="S20" s="16">
-        <v>-6.1400000000000006</v>
+        <v>-17.54</v>
       </c>
       <c r="T20" s="8">
-        <v>-6.1003477396920028E-3</v>
+        <v>-1.7426726279185296E-2</v>
       </c>
       <c r="U20" s="81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
@@ -8928,55 +8941,55 @@
         <v>46</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F21" s="3">
-        <v>51.052</v>
+        <v>151.33000000000001</v>
       </c>
       <c r="G21" s="1">
-        <v>10</v>
+        <v>1400</v>
       </c>
       <c r="H21" s="76">
-        <v>510.52</v>
+        <v>1931.9369340616252</v>
       </c>
       <c r="I21" s="4">
-        <v>0.53806346897692903</v>
+        <v>1.9304504871864916</v>
       </c>
       <c r="J21" s="20">
-        <v>49.052999999999997</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="K21" s="43">
-        <v>-52</v>
+        <v>-1000.77</v>
       </c>
       <c r="L21" s="21">
-        <v>5.4805493196741183E-2</v>
-      </c>
-      <c r="M21" s="105">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="M21" s="87">
+        <v>1000.77</v>
       </c>
       <c r="N21" s="8">
-        <v>5.4805493196741183E-2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P21" s="46">
-        <v>-3.9156154509127995E-2</v>
+        <v>-6.6080750677342717E-4</v>
       </c>
       <c r="Q21" s="43">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="R21" s="8">
-        <v>-2.3076923076923075E-3</v>
+        <v>0</v>
       </c>
       <c r="S21" s="16">
-        <v>-19.989999999999998</v>
+        <v>-1.2700000000000002</v>
       </c>
       <c r="T21" s="8">
-        <v>-1.9860904123199203E-2</v>
+        <v>-1.2617983109786391E-3</v>
       </c>
       <c r="U21" s="81">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
@@ -8984,63 +8997,63 @@
         <v>46</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3">
-        <v>26.254000000000001</v>
+        <v>23.77</v>
       </c>
       <c r="G22" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H22" s="76">
-        <v>262.54000000000002</v>
+        <v>118.85</v>
       </c>
       <c r="I22" s="4">
-        <v>0.27670450353600828</v>
+        <v>0.1187585559119478</v>
       </c>
       <c r="J22" s="20">
-        <v>26.131</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="K22" s="43">
-        <v>-52</v>
+        <v>-1000.77</v>
       </c>
       <c r="L22" s="21">
-        <v>5.4805493196741183E-2</v>
-      </c>
-      <c r="M22" s="105">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="M22" s="87">
+        <v>1000.77</v>
       </c>
       <c r="N22" s="8">
-        <v>5.4805493196741183E-2</v>
+        <v>1</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P22" s="46">
-        <v>-4.6850003808943819E-3</v>
+        <v>-0.2280185107278081</v>
       </c>
       <c r="Q22" s="43">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="R22" s="8">
-        <v>-1.5384615384615385E-3</v>
+        <v>0</v>
       </c>
       <c r="S22" s="16">
-        <v>-1.23</v>
+        <v>-27.400000000000002</v>
       </c>
       <c r="T22" s="8">
-        <v>-1.2220566318926975E-3</v>
+        <v>-2.7223050173869848E-2</v>
       </c>
       <c r="U22" s="81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="F23" s="3">
         <v>8.1252600000000008</v>
@@ -9052,40 +9065,40 @@
         <v>1000</v>
       </c>
       <c r="I23" s="4">
-        <v>1.0539517922450228</v>
+        <v>0.99923059244381829</v>
       </c>
       <c r="J23" s="20">
-        <v>8.16554</v>
+        <v>8.1813099999999999</v>
       </c>
       <c r="K23" s="43">
         <v>-11.84</v>
       </c>
       <c r="L23" s="21">
-        <v>1.247878922018107E-2</v>
-      </c>
-      <c r="M23" s="105">
+        <v>1.1830890214534808E-2</v>
+      </c>
+      <c r="M23" s="87">
         <v>19.13</v>
       </c>
       <c r="N23" s="8">
-        <v>2.0162097785647284E-2</v>
+        <v>1.9115281233450243E-2</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P23" s="46">
-        <v>-4.9573798253839509E-3</v>
+        <v>-6.8982407947559884E-3</v>
       </c>
       <c r="Q23" s="43">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R23" s="8">
-        <v>3.1364349189754314E-3</v>
+        <v>3.6591740721380038E-3</v>
       </c>
       <c r="S23" s="16">
-        <v>-4.93</v>
+        <v>-6.85</v>
       </c>
       <c r="T23" s="8">
-        <v>-4.8981619473422748E-3</v>
+        <v>-6.8057625434674611E-3</v>
       </c>
       <c r="U23" s="81">
         <v>1</v>
@@ -9101,7 +9114,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="43"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="105"/>
+      <c r="M24" s="87"/>
       <c r="N24" s="8"/>
       <c r="O24" s="6"/>
       <c r="P24" s="46"/>
@@ -9121,7 +9134,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="43"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="105"/>
+      <c r="M25" s="87"/>
       <c r="N25" s="8"/>
       <c r="O25" s="6"/>
       <c r="P25" s="46"/>
@@ -9141,7 +9154,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="43"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="105"/>
+      <c r="M26" s="87"/>
       <c r="N26" s="8"/>
       <c r="O26" s="6"/>
       <c r="P26" s="46"/>
@@ -9161,7 +9174,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="43"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="105"/>
+      <c r="M27" s="87"/>
       <c r="N27" s="8"/>
       <c r="O27" s="6"/>
       <c r="P27" s="46"/>
@@ -9181,7 +9194,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="43"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="105"/>
+      <c r="M28" s="87"/>
       <c r="N28" s="8"/>
       <c r="O28" s="6"/>
       <c r="P28" s="46"/>
@@ -9201,7 +9214,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="43"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="105"/>
+      <c r="M29" s="87"/>
       <c r="N29" s="8"/>
       <c r="O29" s="6"/>
       <c r="P29" s="46"/>
@@ -9221,7 +9234,7 @@
       <c r="J30" s="40"/>
       <c r="K30" s="44"/>
       <c r="L30" s="22"/>
-      <c r="M30" s="106"/>
+      <c r="M30" s="88"/>
       <c r="N30" s="9"/>
       <c r="O30" s="41"/>
       <c r="P30" s="47"/>
@@ -9365,22 +9378,22 @@
   <sheetData>
     <row r="8" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98" t="s">
+      <c r="K9" s="100"/>
+      <c r="L9" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="99"/>
-      <c r="N9" s="100" t="s">
+      <c r="M9" s="102"/>
+      <c r="N9" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="101"/>
-      <c r="P9" s="102" t="s">
+      <c r="O9" s="104"/>
+      <c r="P9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="103"/>
+      <c r="Q9" s="106"/>
     </row>
     <row r="10" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="10" t="s">
@@ -9434,10 +9447,10 @@
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D11" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="52" t="s">
         <v>68</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>69</v>
       </c>
       <c r="F11" s="53">
         <v>18</v>
@@ -9449,45 +9462,45 @@
         <v>1000</v>
       </c>
       <c r="I11" s="84">
-        <v>9.3791033577190017</v>
+        <v>6.3059654433093701</v>
       </c>
       <c r="J11" s="56">
         <v>-52.63</v>
       </c>
       <c r="K11" s="57">
-        <v>-5.5469482825855551E-2</v>
+        <v>-5.2589506080318156E-2</v>
       </c>
       <c r="L11" s="60">
         <v>58.82</v>
       </c>
       <c r="M11" s="61">
-        <v>6.1993444419852238E-2</v>
+        <v>5.8774743447545394E-2</v>
       </c>
       <c r="N11" s="60">
-        <v>1.4119432445434123E-2</v>
+        <v>1.411901231384179E-2</v>
       </c>
       <c r="O11" s="65">
-        <v>2.4004475425763554E-4</v>
+        <v>2.4003761159200595E-4</v>
       </c>
       <c r="P11" s="60">
         <v>2</v>
       </c>
       <c r="Q11" s="57">
-        <v>1.8758206715438003E-2</v>
+        <v>1.2611930886618741E-2</v>
       </c>
       <c r="R11" s="74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S11" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1">
         <v>20</v>
@@ -9496,48 +9509,48 @@
         <v>10</v>
       </c>
       <c r="H12" s="1">
-        <v>238.09200000000001</v>
+        <v>238.03399999999999</v>
       </c>
       <c r="I12" s="85">
-        <v>2.2330894766460325</v>
+        <v>1.5010341783327026</v>
       </c>
       <c r="J12" s="58">
-        <v>-948.81</v>
+        <v>-1000.77</v>
       </c>
       <c r="K12" s="8">
         <v>-1</v>
       </c>
       <c r="L12" s="43">
-        <v>948.81</v>
+        <v>1000.77</v>
       </c>
       <c r="M12" s="62">
         <v>1</v>
       </c>
       <c r="N12" s="66">
-        <v>2.1428280000000003E-3</v>
+        <v>2.1423059999999996E-3</v>
       </c>
       <c r="O12" s="67">
-        <v>2.2584374110728179E-6</v>
+        <v>2.1406576935759462E-6</v>
       </c>
       <c r="P12" s="43">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="Q12" s="8">
-        <v>4.6895516788595009E-3</v>
+        <v>3.2160423760877787E-3</v>
       </c>
       <c r="R12" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="72" t="s">
         <v>54</v>
-      </c>
-      <c r="S12" s="72" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1">
         <v>13.11</v>
@@ -9549,16 +9562,16 @@
         <v>131.1</v>
       </c>
       <c r="I13" s="85">
-        <v>1.2296004501969611</v>
+        <v>0.82671206961785837</v>
       </c>
       <c r="J13" s="58">
-        <v>-948.81</v>
+        <v>-1000.77</v>
       </c>
       <c r="K13" s="8">
         <v>-1</v>
       </c>
       <c r="L13" s="43">
-        <v>948.81</v>
+        <v>1000.77</v>
       </c>
       <c r="M13" s="62">
         <v>1</v>
@@ -9567,27 +9580,27 @@
         <v>-9.3745479452054803E-3</v>
       </c>
       <c r="O13" s="67">
-        <v>-9.8803216083362116E-6</v>
+        <v>-9.3673350971806508E-6</v>
       </c>
       <c r="P13" s="43">
         <v>6.5600000000000005</v>
       </c>
       <c r="Q13" s="8">
-        <v>6.1526918026636658E-2</v>
+        <v>4.1367133308109469E-2</v>
       </c>
       <c r="R13" s="73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S13" s="72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1">
         <v>15</v>
@@ -9596,48 +9609,48 @@
         <v>10</v>
       </c>
       <c r="H14" s="1">
-        <v>178.56900000000002</v>
+        <v>178.52549999999999</v>
       </c>
       <c r="I14" s="85">
-        <v>1.6748171074845246</v>
+        <v>1.1257756337495268</v>
       </c>
       <c r="J14" s="58">
-        <v>-948.81</v>
+        <v>-1000.77</v>
       </c>
       <c r="K14" s="8">
         <v>-1</v>
       </c>
       <c r="L14" s="43">
-        <v>948.81</v>
+        <v>1000.77</v>
       </c>
       <c r="M14" s="62">
         <v>1</v>
       </c>
       <c r="N14" s="66">
-        <v>2.1428280000000003E-3</v>
+        <v>2.1423059999999996E-3</v>
       </c>
       <c r="O14" s="67">
-        <v>2.2584374110728179E-6</v>
+        <v>2.1406576935759462E-6</v>
       </c>
       <c r="P14" s="43">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="Q14" s="8">
-        <v>4.6895516788595009E-3</v>
+        <v>3.2160423760877787E-3</v>
       </c>
       <c r="R14" s="73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S14" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1">
         <v>15</v>
@@ -9649,45 +9662,45 @@
         <v>1000</v>
       </c>
       <c r="I15" s="85">
-        <v>9.3791033577190017</v>
+        <v>6.3059654433093701</v>
       </c>
       <c r="J15" s="58">
         <v>-71.430000000000007</v>
       </c>
       <c r="K15" s="8">
-        <v>-7.528377652006199E-2</v>
+        <v>-7.137504121826195E-2</v>
       </c>
       <c r="L15" s="43">
         <v>62.5</v>
       </c>
       <c r="M15" s="62">
-        <v>6.5871987015313924E-2</v>
+        <v>6.2451912027738643E-2</v>
       </c>
       <c r="N15" s="66">
-        <v>-0.20405762367325606</v>
+        <v>-0.20401032018419324</v>
       </c>
       <c r="O15" s="67">
-        <v>-3.2649219787720968E-3</v>
+        <v>-3.264165122947092E-3</v>
       </c>
       <c r="P15" s="43">
         <v>2</v>
       </c>
       <c r="Q15" s="8">
-        <v>1.8758206715438003E-2</v>
+        <v>1.2611930886618741E-2</v>
       </c>
       <c r="R15" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S15" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1">
         <v>20.5</v>
@@ -9699,37 +9712,37 @@
         <v>1000</v>
       </c>
       <c r="I16" s="85">
-        <v>9.3791033577190017</v>
+        <v>6.3059654433093701</v>
       </c>
       <c r="J16" s="58">
-        <v>-948.81</v>
+        <v>-1000.77</v>
       </c>
       <c r="K16" s="8">
         <v>-1</v>
       </c>
       <c r="L16" s="43">
-        <v>948.81</v>
+        <v>1000.77</v>
       </c>
       <c r="M16" s="62">
         <v>1</v>
       </c>
       <c r="N16" s="66">
-        <v>-0.16618973700263348</v>
+        <v>-0.16618479193426006</v>
       </c>
       <c r="O16" s="67">
-        <v>-1.7515597116665453E-4</v>
+        <v>-1.6605692809962334E-4</v>
       </c>
       <c r="P16" s="43">
         <v>2</v>
       </c>
       <c r="Q16" s="8">
-        <v>1.8758206715438003E-2</v>
+        <v>1.2611930886618741E-2</v>
       </c>
       <c r="R16" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S16" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.25">

--- a/Risk Monitor/Risk.xlsx
+++ b/Risk Monitor/Risk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="2" r:id="rId1"/>
@@ -502,9 +502,6 @@
     <t>XAGEUR</t>
   </si>
   <si>
-    <t>F*ckall research!</t>
-  </si>
-  <si>
     <t>USDZAR</t>
   </si>
   <si>
@@ -515,6 +512,9 @@
   </si>
   <si>
     <t>11/Apr/21 | 03:15 AM</t>
+  </si>
+  <si>
+    <t>research? Whats dat?</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1556,7 +1555,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1663,7 +1661,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1808,9 +1805,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1997,7 +1992,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2142,9 +2136,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2657,7 +2649,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2802,9 +2793,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2831,7 +2820,7 @@
                   <c:v>1000.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4626.8000000000011</c:v>
+                  <c:v>4626.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,7 +2853,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2982,7 +2970,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3127,9 +3114,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3189,7 +3174,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -8161,7 +8145,7 @@
       </c>
       <c r="B13" s="4">
         <f>SUM(Positions!I11:I30)</f>
-        <v>15.393642967883736</v>
+        <v>15.393642967883739</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8216,11 +8200,11 @@
         <v>38</v>
       </c>
       <c r="B19" s="1">
-        <v>4626.8000000000011</v>
+        <v>4626.8</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>4.6232401051190593</v>
+        <v>4.6232401051190584</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8274,7 +8258,7 @@
   </sheetPr>
   <dimension ref="D8:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+    <sheetView topLeftCell="C8" workbookViewId="0">
       <selection activeCell="C13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -8381,22 +8365,22 @@
         <v>46</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F11" s="26">
-        <v>30719</v>
+        <v>2219.92</v>
       </c>
       <c r="G11" s="27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11" s="75">
-        <v>1400.6091389073799</v>
+        <v>4439.84</v>
       </c>
       <c r="I11" s="28">
-        <v>1.3995314996526473</v>
+        <v>4.4364239535557619</v>
       </c>
       <c r="J11" s="29">
-        <v>29907</v>
+        <v>2242.31</v>
       </c>
       <c r="K11" s="42">
         <v>-1000.77</v>
@@ -8411,22 +8395,22 @@
         <v>1</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P11" s="45">
-        <v>-2.6433152120837265E-2</v>
+        <v>1.0085949043208706E-2</v>
       </c>
       <c r="Q11" s="42">
-        <v>-1.6800000000000002</v>
+        <v>-5.99</v>
       </c>
       <c r="R11" s="31">
-        <v>-1.6787073953056148E-3</v>
+        <v>-5.9853912487384713E-3</v>
       </c>
       <c r="S11" s="33">
-        <v>-37.44</v>
+        <v>44.78</v>
       </c>
       <c r="T11" s="31">
-        <v>-3.7198211624441133E-2</v>
+        <v>4.4490809736711379E-2</v>
       </c>
       <c r="U11" s="80">
         <v>2</v>
@@ -8434,25 +8418,25 @@
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" s="34" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3">
-        <v>4015.3</v>
+        <v>23.77</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="76">
-        <v>11.220000000000027</v>
+        <v>118.85</v>
       </c>
       <c r="I12" s="4">
-        <v>1.1211367247219668E-2</v>
+        <v>0.1187585559119478</v>
       </c>
       <c r="J12" s="23">
-        <v>4122.1000000000004</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="K12" s="43">
         <v>-1000.77</v>
@@ -8467,25 +8451,25 @@
         <v>1</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P12" s="46">
+        <v>-0.2280185107278081</v>
+      </c>
+      <c r="Q12" s="43">
         <v>0</v>
       </c>
-      <c r="Q12" s="43">
-        <v>-0.67</v>
-      </c>
       <c r="R12" s="8">
-        <v>-6.6948449693735826E-4</v>
+        <v>0</v>
       </c>
       <c r="S12" s="16">
-        <v>11.169999999999998</v>
+        <v>-27.400000000000002</v>
       </c>
       <c r="T12" s="8">
-        <v>1.1097863884749129E-2</v>
+        <v>-2.7223050173869848E-2</v>
       </c>
       <c r="U12" s="81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
@@ -8493,52 +8477,52 @@
         <v>46</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F13" s="3">
-        <v>152.91500000000002</v>
+        <v>30719</v>
       </c>
       <c r="G13" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H13" s="76">
-        <v>3058.3</v>
+        <v>1400.6091389073799</v>
       </c>
       <c r="I13" s="4">
-        <v>3.0559469208709298</v>
+        <v>1.3995314996526473</v>
       </c>
       <c r="J13" s="20">
-        <v>156.33000000000001</v>
+        <v>29907</v>
       </c>
       <c r="K13" s="43">
-        <v>-78</v>
+        <v>-1000.77</v>
       </c>
       <c r="L13" s="21">
-        <v>7.7939986210617831E-2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="87">
-        <v>78</v>
+        <v>1000.77</v>
       </c>
       <c r="N13" s="8">
-        <v>7.7939986210617831E-2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P13" s="46">
-        <v>2.2332668475950637E-2</v>
+        <v>-2.6433152120837265E-2</v>
       </c>
       <c r="Q13" s="43">
-        <v>-2</v>
+        <v>-1.6800000000000002</v>
       </c>
       <c r="R13" s="8">
-        <v>-2.564102564102564E-2</v>
+        <v>-1.6787073953056148E-3</v>
       </c>
       <c r="S13" s="16">
-        <v>68.3</v>
+        <v>-37.44</v>
       </c>
       <c r="T13" s="8">
-        <v>6.7858917039244904E-2</v>
+        <v>-3.7198211624441133E-2</v>
       </c>
       <c r="U13" s="81">
         <v>2</v>
@@ -8549,52 +8533,52 @@
         <v>46</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3">
-        <v>66.540000000000006</v>
+        <v>137.77000000000001</v>
       </c>
       <c r="G14" s="1">
         <v>10</v>
       </c>
       <c r="H14" s="76">
-        <v>665.40000000000009</v>
+        <v>1377.7</v>
       </c>
       <c r="I14" s="4">
-        <v>0.66488803621211678</v>
+        <v>1.3766399872098485</v>
       </c>
       <c r="J14" s="20">
-        <v>65.19</v>
+        <v>137.49</v>
       </c>
       <c r="K14" s="43">
-        <v>-520</v>
+        <v>-1000.77</v>
       </c>
       <c r="L14" s="21">
-        <v>0.51959990807078549</v>
+        <v>1</v>
       </c>
       <c r="M14" s="87">
-        <v>520</v>
+        <v>1000.77</v>
       </c>
       <c r="N14" s="8">
-        <v>0.51959990807078549</v>
+        <v>1</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P14" s="46">
-        <v>-2.0288548241659279E-2</v>
+        <v>-2.032372795238449E-3</v>
       </c>
       <c r="Q14" s="43">
-        <v>-0.53</v>
+        <v>-0.5</v>
       </c>
       <c r="R14" s="8">
-        <v>-1.0192307692307692E-3</v>
+        <v>-4.9961529622190911E-4</v>
       </c>
       <c r="S14" s="16">
-        <v>-13.5</v>
+        <v>-2.8</v>
       </c>
       <c r="T14" s="8">
-        <v>-1.3412816691505217E-2</v>
+        <v>-2.7819175360158967E-3</v>
       </c>
       <c r="U14" s="81">
         <v>1</v>
@@ -8602,58 +8586,58 @@
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D15" s="34" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3">
-        <v>26.254000000000001</v>
+        <v>4015.3</v>
       </c>
       <c r="G15" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H15" s="76">
-        <v>262.54000000000002</v>
+        <v>11.220000000000027</v>
       </c>
       <c r="I15" s="4">
-        <v>0.26233799974020006</v>
+        <v>1.1211367247219668E-2</v>
       </c>
       <c r="J15" s="20">
-        <v>26.341999999999999</v>
+        <v>4122.1000000000004</v>
       </c>
       <c r="K15" s="43">
-        <v>-52</v>
+        <v>-1000.77</v>
       </c>
       <c r="L15" s="21">
-        <v>5.1959990807078547E-2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="87">
-        <v>52</v>
+        <v>1000.77</v>
       </c>
       <c r="N15" s="8">
-        <v>5.1959990807078547E-2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="P15" s="46">
-        <v>3.3518701912088598E-3</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="43">
-        <v>-0.14000000000000001</v>
+        <v>-0.67</v>
       </c>
       <c r="R15" s="8">
-        <v>-2.6923076923076926E-3</v>
+        <v>-6.6948449693735826E-4</v>
       </c>
       <c r="S15" s="16">
-        <v>0.88</v>
+        <v>11.169999999999998</v>
       </c>
       <c r="T15" s="8">
-        <v>8.7431693989071038E-4</v>
+        <v>1.1097863884749129E-2</v>
       </c>
       <c r="U15" s="81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="4:21" x14ac:dyDescent="0.25">
@@ -8661,108 +8645,108 @@
         <v>46</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F16" s="3">
-        <v>2219.92</v>
+        <v>51.052</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H16" s="76">
-        <v>4439.84</v>
+        <v>510.52</v>
       </c>
       <c r="I16" s="4">
-        <v>4.4364239535557619</v>
+        <v>0.51012720205441808</v>
       </c>
       <c r="J16" s="20">
-        <v>2242.31</v>
+        <v>49.298000000000002</v>
       </c>
       <c r="K16" s="43">
-        <v>-1000.77</v>
+        <v>-52</v>
       </c>
       <c r="L16" s="21">
+        <v>5.1959990807078547E-2</v>
+      </c>
+      <c r="M16" s="87">
+        <v>52</v>
+      </c>
+      <c r="N16" s="8">
+        <v>5.1959990807078547E-2</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="46">
+        <v>-3.4357126067538934E-2</v>
+      </c>
+      <c r="Q16" s="43">
+        <v>-0.23</v>
+      </c>
+      <c r="R16" s="8">
+        <v>-4.4230769230769237E-3</v>
+      </c>
+      <c r="S16" s="16">
+        <v>-17.54</v>
+      </c>
+      <c r="T16" s="8">
+        <v>-1.7426726279185296E-2</v>
+      </c>
+      <c r="U16" s="81">
         <v>1</v>
-      </c>
-      <c r="M16" s="87">
-        <v>1000.77</v>
-      </c>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="46">
-        <v>1.0085949043208706E-2</v>
-      </c>
-      <c r="Q16" s="43">
-        <v>-5.99</v>
-      </c>
-      <c r="R16" s="8">
-        <v>-5.9853912487384713E-3</v>
-      </c>
-      <c r="S16" s="16">
-        <v>44.78</v>
-      </c>
-      <c r="T16" s="8">
-        <v>4.4490809736711379E-2</v>
-      </c>
-      <c r="U16" s="81">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="34" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3">
-        <v>137.77000000000001</v>
+        <v>8.1252600000000008</v>
       </c>
       <c r="G17" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="76">
-        <v>1377.7</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="4">
-        <v>1.3766399872098485</v>
+        <v>0.99923059244381829</v>
       </c>
       <c r="J17" s="20">
-        <v>137.49</v>
+        <v>8.1813099999999999</v>
       </c>
       <c r="K17" s="43">
-        <v>-1000.77</v>
+        <v>-11.84</v>
       </c>
       <c r="L17" s="21">
-        <v>1</v>
+        <v>1.1830890214534808E-2</v>
       </c>
       <c r="M17" s="87">
-        <v>1000.77</v>
+        <v>19.13</v>
       </c>
       <c r="N17" s="8">
-        <v>1</v>
+        <v>1.9115281233450243E-2</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P17" s="46">
-        <v>-2.032372795238449E-3</v>
+        <v>-6.8982407947559884E-3</v>
       </c>
       <c r="Q17" s="43">
-        <v>-0.5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R17" s="8">
-        <v>-4.9961529622190911E-4</v>
+        <v>3.6591740721380038E-3</v>
       </c>
       <c r="S17" s="16">
-        <v>-2.8</v>
+        <v>-6.85</v>
       </c>
       <c r="T17" s="8">
-        <v>-2.7819175360158967E-3</v>
+        <v>-6.8057625434674611E-3</v>
       </c>
       <c r="U17" s="81">
         <v>1</v>
@@ -8773,84 +8757,84 @@
         <v>46</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3">
-        <v>13.004</v>
+        <v>151.33000000000001</v>
       </c>
       <c r="G18" s="1">
-        <v>10</v>
+        <v>1400</v>
       </c>
       <c r="H18" s="76">
-        <v>130.04</v>
+        <v>1931.9369340616252</v>
       </c>
       <c r="I18" s="4">
-        <v>0.12993994624139413</v>
+        <v>1.9304504871864916</v>
       </c>
       <c r="J18" s="20">
-        <v>12.468999999999999</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="K18" s="43">
-        <v>-52</v>
+        <v>-1000.77</v>
       </c>
       <c r="L18" s="21">
-        <v>5.1959990807078547E-2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="87">
-        <v>52</v>
+        <v>1000.77</v>
       </c>
       <c r="N18" s="8">
-        <v>5.1959990807078547E-2</v>
+        <v>1</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P18" s="46">
-        <v>-4.1141187326976331E-2</v>
+        <v>-6.6080750677342717E-4</v>
       </c>
       <c r="Q18" s="43">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="R18" s="8">
-        <v>-1.1538461538461537E-3</v>
+        <v>0</v>
       </c>
       <c r="S18" s="16">
-        <v>-5.35</v>
+        <v>-1.2700000000000002</v>
       </c>
       <c r="T18" s="8">
-        <v>-5.3154495777446593E-3</v>
+        <v>-1.2617983109786391E-3</v>
       </c>
       <c r="U18" s="81">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F19" s="3">
-        <v>24.927</v>
+        <v>152.91500000000002</v>
       </c>
       <c r="G19" s="1">
         <v>20</v>
       </c>
       <c r="H19" s="76">
-        <v>498.53999999999996</v>
+        <v>3058.3</v>
       </c>
       <c r="I19" s="4">
-        <v>0.49815641955694112</v>
+        <v>3.0559469208709298</v>
       </c>
       <c r="J19" s="20">
-        <v>25.276</v>
+        <v>156.33000000000001</v>
       </c>
       <c r="K19" s="43">
-        <v>-7.8</v>
+        <v>-78</v>
       </c>
       <c r="L19" s="21">
-        <v>7.7939986210617826E-3</v>
+        <v>7.7939986210617831E-2</v>
       </c>
       <c r="M19" s="87">
         <v>78</v>
@@ -8859,22 +8843,22 @@
         <v>7.7939986210617831E-2</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P19" s="46">
-        <v>-1.4000882577125213E-2</v>
+        <v>2.2332668475950637E-2</v>
       </c>
       <c r="Q19" s="43">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R19" s="8">
-        <v>0</v>
+        <v>-2.564102564102564E-2</v>
       </c>
       <c r="S19" s="16">
-        <v>-6.98</v>
+        <v>68.3</v>
       </c>
       <c r="T19" s="8">
-        <v>-6.934923000496771E-3</v>
+        <v>6.7858917039244904E-2</v>
       </c>
       <c r="U19" s="81">
         <v>2</v>
@@ -8882,58 +8866,58 @@
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="34" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F20" s="3">
-        <v>51.052</v>
+        <v>24.927</v>
       </c>
       <c r="G20" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H20" s="76">
-        <v>510.52</v>
+        <v>498.53999999999996</v>
       </c>
       <c r="I20" s="4">
-        <v>0.51012720205441808</v>
+        <v>0.49815641955694112</v>
       </c>
       <c r="J20" s="20">
-        <v>49.298000000000002</v>
+        <v>25.276</v>
       </c>
       <c r="K20" s="43">
-        <v>-52</v>
+        <v>-7.8</v>
       </c>
       <c r="L20" s="21">
-        <v>5.1959990807078547E-2</v>
+        <v>7.7939986210617826E-3</v>
       </c>
       <c r="M20" s="87">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="N20" s="8">
-        <v>5.1959990807078547E-2</v>
+        <v>7.7939986210617831E-2</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P20" s="46">
-        <v>-3.4357126067538934E-2</v>
+        <v>-1.4000882577125213E-2</v>
       </c>
       <c r="Q20" s="43">
-        <v>-0.23</v>
+        <v>0</v>
       </c>
       <c r="R20" s="8">
-        <v>-4.4230769230769237E-3</v>
+        <v>0</v>
       </c>
       <c r="S20" s="16">
-        <v>-17.54</v>
+        <v>-6.98</v>
       </c>
       <c r="T20" s="8">
-        <v>-1.7426726279185296E-2</v>
+        <v>-6.934923000496771E-3</v>
       </c>
       <c r="U20" s="81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
@@ -8941,55 +8925,55 @@
         <v>46</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3">
-        <v>151.33000000000001</v>
+        <v>13.004</v>
       </c>
       <c r="G21" s="1">
-        <v>1400</v>
+        <v>10</v>
       </c>
       <c r="H21" s="76">
-        <v>1931.9369340616252</v>
+        <v>130.04</v>
       </c>
       <c r="I21" s="4">
-        <v>1.9304504871864916</v>
+        <v>0.12993994624139413</v>
       </c>
       <c r="J21" s="20">
-        <v>151.22999999999999</v>
+        <v>12.468999999999999</v>
       </c>
       <c r="K21" s="43">
-        <v>-1000.77</v>
+        <v>-52</v>
       </c>
       <c r="L21" s="21">
-        <v>1</v>
+        <v>5.1959990807078547E-2</v>
       </c>
       <c r="M21" s="87">
-        <v>1000.77</v>
+        <v>52</v>
       </c>
       <c r="N21" s="8">
-        <v>1</v>
+        <v>5.1959990807078547E-2</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P21" s="46">
-        <v>-6.6080750677342717E-4</v>
+        <v>-4.1141187326976331E-2</v>
       </c>
       <c r="Q21" s="43">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="R21" s="8">
-        <v>0</v>
+        <v>-1.1538461538461537E-3</v>
       </c>
       <c r="S21" s="16">
-        <v>-1.2700000000000002</v>
+        <v>-5.35</v>
       </c>
       <c r="T21" s="8">
-        <v>-1.2617983109786391E-3</v>
+        <v>-5.3154495777446593E-3</v>
       </c>
       <c r="U21" s="81">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
@@ -8997,108 +8981,108 @@
         <v>46</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3">
-        <v>23.77</v>
+        <v>66.540000000000006</v>
       </c>
       <c r="G22" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H22" s="76">
-        <v>118.85</v>
+        <v>665.40000000000009</v>
       </c>
       <c r="I22" s="4">
-        <v>0.1187585559119478</v>
+        <v>0.66488803621211678</v>
       </c>
       <c r="J22" s="20">
-        <v>18.350000000000001</v>
+        <v>65.19</v>
       </c>
       <c r="K22" s="43">
-        <v>-1000.77</v>
+        <v>-520</v>
       </c>
       <c r="L22" s="21">
-        <v>1</v>
+        <v>0.51959990807078549</v>
       </c>
       <c r="M22" s="87">
-        <v>1000.77</v>
+        <v>520</v>
       </c>
       <c r="N22" s="8">
-        <v>1</v>
+        <v>0.51959990807078549</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P22" s="46">
-        <v>-0.2280185107278081</v>
+        <v>-2.0288548241659279E-2</v>
       </c>
       <c r="Q22" s="43">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
       <c r="R22" s="8">
-        <v>0</v>
+        <v>-1.0192307692307692E-3</v>
       </c>
       <c r="S22" s="16">
-        <v>-27.400000000000002</v>
+        <v>-13.5</v>
       </c>
       <c r="T22" s="8">
-        <v>-2.7223050173869848E-2</v>
+        <v>-1.3412816691505217E-2</v>
       </c>
       <c r="U22" s="81">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F23" s="3">
-        <v>8.1252600000000008</v>
+        <v>26.254000000000001</v>
       </c>
       <c r="G23" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="H23" s="76">
-        <v>1000</v>
+        <v>262.54000000000002</v>
       </c>
       <c r="I23" s="4">
-        <v>0.99923059244381829</v>
+        <v>0.26233799974020006</v>
       </c>
       <c r="J23" s="20">
-        <v>8.1813099999999999</v>
+        <v>26.341999999999999</v>
       </c>
       <c r="K23" s="43">
-        <v>-11.84</v>
+        <v>-52</v>
       </c>
       <c r="L23" s="21">
-        <v>1.1830890214534808E-2</v>
+        <v>5.1959990807078547E-2</v>
       </c>
       <c r="M23" s="87">
-        <v>19.13</v>
+        <v>52</v>
       </c>
       <c r="N23" s="8">
-        <v>1.9115281233450243E-2</v>
+        <v>5.1959990807078547E-2</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P23" s="46">
-        <v>-6.8982407947559884E-3</v>
+        <v>3.3518701912088598E-3</v>
       </c>
       <c r="Q23" s="43">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="R23" s="8">
-        <v>3.6591740721380038E-3</v>
+        <v>-2.6923076923076926E-3</v>
       </c>
       <c r="S23" s="16">
-        <v>-6.85</v>
+        <v>0.88</v>
       </c>
       <c r="T23" s="8">
-        <v>-6.8057625434674611E-3</v>
+        <v>8.7431693989071038E-4</v>
       </c>
       <c r="U23" s="81">
         <v>1</v>
@@ -9356,12 +9340,13 @@
   </sheetPr>
   <dimension ref="D8:S41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="C15" sqref="A15:XFD15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="83"/>
@@ -9462,7 +9447,7 @@
         <v>1000</v>
       </c>
       <c r="I11" s="84">
-        <v>6.3059654433093701</v>
+        <v>0.99923059244381829</v>
       </c>
       <c r="J11" s="56">
         <v>-52.63</v>
@@ -9512,7 +9497,7 @@
         <v>238.03399999999999</v>
       </c>
       <c r="I12" s="85">
-        <v>1.5010341783327026</v>
+        <v>0.23785085484177182</v>
       </c>
       <c r="J12" s="58">
         <v>-1000.77</v>
@@ -9562,7 +9547,7 @@
         <v>131.1</v>
       </c>
       <c r="I13" s="85">
-        <v>0.82671206961785837</v>
+        <v>0.13099913066938457</v>
       </c>
       <c r="J13" s="58">
         <v>-1000.77</v>
@@ -9589,10 +9574,10 @@
         <v>4.1367133308109469E-2</v>
       </c>
       <c r="R13" s="73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S13" s="72" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="4:19" x14ac:dyDescent="0.25">
@@ -9612,7 +9597,7 @@
         <v>178.52549999999999</v>
       </c>
       <c r="I14" s="85">
-        <v>1.1257756337495268</v>
+        <v>0.17838814113132886</v>
       </c>
       <c r="J14" s="58">
         <v>-1000.77</v>
@@ -9639,7 +9624,7 @@
         <v>3.2160423760877787E-3</v>
       </c>
       <c r="R14" s="73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S14" s="72" t="s">
         <v>54</v>
@@ -9650,7 +9635,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1">
         <v>15</v>
@@ -9662,7 +9647,7 @@
         <v>1000</v>
       </c>
       <c r="I15" s="85">
-        <v>6.3059654433093701</v>
+        <v>0.99923059244381829</v>
       </c>
       <c r="J15" s="58">
         <v>-71.430000000000007</v>
@@ -9692,7 +9677,7 @@
         <v>53</v>
       </c>
       <c r="S15" s="72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="4:19" x14ac:dyDescent="0.25">
@@ -9712,7 +9697,7 @@
         <v>1000</v>
       </c>
       <c r="I16" s="85">
-        <v>6.3059654433093701</v>
+        <v>0.99923059244381829</v>
       </c>
       <c r="J16" s="58">
         <v>-1000.77</v>
@@ -9739,7 +9724,7 @@
         <v>1.2611930886618741E-2</v>
       </c>
       <c r="R16" s="73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S16" s="72" t="s">
         <v>54</v>
